--- a/biology/Microbiologie/Polynucleobacter/Polynucleobacter.xlsx
+++ b/biology/Microbiologie/Polynucleobacter/Polynucleobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polynucleobacter est un genre de bactéries aquatiques aérobies, non motiles et chimioorganotrophes, initialement décrites comme endosymbiontes obligatoires mais comprenant désormais également des bactéries libres.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Polynucleobacter a été créé en 1987 par les biologistes allemands Klaus Heckmann (d) (1934-2012) et Helmut J. Schmidt (d) (1953-)[1] initialement pour caractériser le microorganisme, endosymbiote de ciliés, connu sous le nom de particule omicron ou omicronlike[1]. Endosymbiote bactérien comprenant plusieurs nucléoides et qui réside dans le cytoplasme de différentes espèces du genre Euplotes, notamment E. aediculatus, E. eurystomus, E. plumipes, E. daiduleos, E. octocarinatus, E. patella et E. woodrufi[1].
-L'espèce type du genre est Polynucleobacter necessarius[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Polynucleobacter a été créé en 1987 par les biologistes allemands Klaus Heckmann (d) (1934-2012) et Helmut J. Schmidt (d) (1953-) initialement pour caractériser le microorganisme, endosymbiote de ciliés, connu sous le nom de particule omicron ou omicronlike. Endosymbiote bactérien comprenant plusieurs nucléoides et qui réside dans le cytoplasme de différentes espèces du genre Euplotes, notamment E. aediculatus, E. eurystomus, E. plumipes, E. daiduleos, E. octocarinatus, E. patella et E. woodrufi.
+L'espèce type du genre est Polynucleobacter necessarius.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Polynucleobacter, dérive du grec ancien πολύς, polús, « beaucoup », du latin nucleus, « noyau », et du grec ancien βακτηρία, baktêria, « bâton pour la marche »[2],[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Polynucleobacter, dérive du grec ancien πολύς, polús, « beaucoup », du latin nucleus, « noyau », et du grec ancien βακτηρία, baktêria, « bâton pour la marche »,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (5 novembre 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (5 novembre 2022) :
 Polynucleobacter acidiphobus Hahn et al., 2011
 Polynucleobacter aenigmaticus Hahn et al., 2017
 Polynucleobacter alcilacus Hahn et al., 2022
@@ -636,7 +654,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Klaus Heckmann et Helmut J. Schmidt, « Polynucleobacter necessarius gen. nov., sp. nov., an Obligately Endosymbiotic Bacterium Living in the Cytoplasm of Euplotes aediculatus », International Journal of Systematic Bacteriology, vol. 37, no 4,‎ 1er octobre 1987, p. 456–457 (ISSN 0020-7713, 1465-2102 et 1070-6259, DOI 10.1099/00207713-37-4-456)</t>
         </is>
